--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$12</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>What</t>
   </si>
@@ -89,12 +92,6 @@
     <t>thanasis</t>
   </si>
   <si>
-    <t>που είναι αυτό?!?!?</t>
-  </si>
-  <si>
-    <t>τι εννοει με το 5ο heading?</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -104,19 +101,54 @@
     <t>????</t>
   </si>
   <si>
-    <t>τι εννοει?</t>
+    <t>που είναι αυτό?!?!?
+Αρχική σελίδα - 2ο Slider</t>
+  </si>
+  <si>
+    <t>τι εννοει με το 5ο heading?
+Μάλλον εννοεί τον editor</t>
+  </si>
+  <si>
+    <t>τι εννοει?
+Στα άρθρα μάλλον, όπως εμφανίζονται. Δεν ρώτησα.</t>
+  </si>
+  <si>
+    <t>Δεν θέλει τόνους - κεφαλαια κτλπ.</t>
+  </si>
+  <si>
+    <t>Δύσκολο</t>
+  </si>
+  <si>
+    <t>Θέλει να σπάσει σε 2 sliders</t>
+  </si>
+  <si>
+    <t>xmmm</t>
+  </si>
+  <si>
+    <t>Θανάση αυτό μου το έστειλαν από την sporting bet που θα γίνει χορηγός του τουρνουά. Έχουμε συμφωνήσει να βάλουμε δύο Μπάνερ δεξιά και αριστερά στα κενά του site και ένα μακρόστενο στο κέντρο τώρα πάνω από το slider η κάτω από αυτό δεν ξέρω θα το δούμε. Σε παρακαλώ στείλε μου σε τι μέγεθος θες να είναι για να του τα ζητήσω.  Από ότι είδα θέλει μέγεθος σε pixel καταλαβαίνεις τι θέλει ε;</t>
+  </si>
+  <si>
+    <t>logos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -185,33 +217,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -308,7 +385,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -493,33 +570,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -530,7 +609,7 @@
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -552,12 +631,12 @@
         <v>16</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
+      <c r="G2" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -571,11 +650,11 @@
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5">
+      <c r="G3" s="9"/>
+      <c r="H3" s="11">
         <v>43007</v>
       </c>
     </row>
@@ -594,12 +673,12 @@
         <v>18</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
+      <c r="G4" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -614,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="5"/>
@@ -636,7 +715,9 @@
       <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -656,10 +737,10 @@
       <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -676,7 +757,9 @@
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -694,9 +777,11 @@
         <v>9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -716,7 +801,9 @@
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -736,7 +823,7 @@
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -756,11 +843,28 @@
       <c r="F12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43007</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
@@ -850,6 +954,11 @@
       <c r="E42" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H12">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$13</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>What</t>
   </si>
@@ -135,12 +135,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,50 +253,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,11 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -630,13 +643,17 @@
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="5">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -718,7 +735,9 @@
       <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>43007</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -731,14 +750,16 @@
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>43007</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -954,11 +975,7 @@
       <c r="E42" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H12">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>What</t>
   </si>
@@ -584,10 +584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -629,7 +630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -653,7 +654,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -689,11 +690,15 @@
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>43007</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -715,7 +720,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -739,7 +744,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -827,7 +832,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -845,7 +850,9 @@
         <v>17</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>43007</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -975,7 +982,11 @@
       <c r="E42" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H13"/>
+  <autoFilter ref="A1:H13">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -630,7 +630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -654,7 +654,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -676,7 +676,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -744,7 +744,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>11</v>
       </c>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,15 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,15 +172,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -253,56 +237,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,54 +559,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="4" sqref="A2:A3 A6 A7 A10 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -641,21 +615,21 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="5">
         <v>43007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5">
@@ -665,19 +639,19 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5">
@@ -687,21 +661,19 @@
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5">
-        <v>43007</v>
-      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5">
@@ -711,17 +683,17 @@
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5">
@@ -731,21 +703,21 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="5">
         <v>43007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5">
@@ -755,19 +727,19 @@
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="5">
         <v>43007</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="5">
@@ -777,19 +749,19 @@
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
       <c r="B9" s="5">
@@ -799,19 +771,19 @@
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="5">
@@ -821,19 +793,19 @@
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
       <c r="B11" s="5">
@@ -843,19 +815,19 @@
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="5">
         <v>43007</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>12</v>
       </c>
       <c r="B12" s="5">
@@ -865,19 +837,19 @@
       <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
       <c r="B13" s="5">
@@ -887,106 +859,102 @@
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="2"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="2"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="2"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="2"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="2"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="2"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="2"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="2"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="2"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="2"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="2"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="2"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="2"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="2"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="2"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="2"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="2"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="2"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="2"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="2"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="2"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="2"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="2"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="2"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="2"/>
+      <c r="E42" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H13">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>What</t>
   </si>
@@ -52,95 +52,165 @@
     <t>Θέλουμε οταν ενας χρηστης μπαίνει σε κάποιο άρθρο να υπάρχουν βελάκια(κάτω αριστερά και κάτω δεξιά) ώστε να τον πηγαίνουν στο επόμενο και στο προηγούμενο άρθρο.Αυτό θα βοηθήσει πολύ εμάς αλλά και τους χρήστες και ειδικότερα όταν θα βλέπουν το πρόγραμμα.</t>
   </si>
   <si>
-    <t>Όταν βάζουμε βίντεο δηλώσεων σε ένα άρθρο,δεν τραβάει μια εικόνα από το βίντεο ώστε να μπει φωτογραφία του άρθρου.Κόιταξε το αυτό γιατί το θέλουμε.</t>
-  </si>
-  <si>
     <t>Θέλουμε σε κάθε σελιδά μια κατηργορίας (π.χ. Γ όμιλος Α1) και κάτω από το βασικό slider να φτιαχτεί ένα πλαίσιο όπου θα χωρίζεται σε 2 μέρη.Στο πάνω μέρος θέλουμε να υπάρχουν τα άρθρα των MVP (πάντα για την συγκεκριμένη κατηγορία) και στο κάτω οι δηλώσεις.Με την ίδια λογική που στην αρχική σελίδα έχουμε αυτο :
 δες φωτο στο εμαιλ</t>
   </si>
   <si>
     <t>Κόιταξε επίσης να μπορεί ο χρήστης πατώντας την φωτό ενος άρθρου να μπαίνει κατευθείαν γιατί δεν σε αφήνει και πρέπει να πατήσει τον τίτλο.Επίσης έχουμε παρατηρήσει κάποια θέματα με την ταχύτητα.Ρίξε και εσύ μια ματιά.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>δεν θέλουμε το twitter.Μπορείς να το διώξεις.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Θέλουμε να αλλάξει στην αρχική οθόνη το "Top 10 και δηλώσεις" και να μείνει μόνο το "Top 10" </t>
+  </si>
+  <si>
+    <t>nikos</t>
+  </si>
+  <si>
+    <t>Ένα πολύ σημαντικό θέμα που μας έχει προκύψει είναι ότι η γραμματοσειρά είναι πολύ μικρή στα άρθρα(αυτή που είναι by default).Θέλουμε να κάνεις by default το 5ο heading.</t>
+  </si>
+  <si>
+    <t>Επίσης έχουμε παρατηρήσει ότι υπάρχει θέμα όταν γράφουμε σε άλλο heading μας τα βγάζει όλα σε κεφαλαία και δεν το θέλουμε.</t>
+  </si>
+  <si>
+    <t>thanasis</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>που είναι αυτό?!?!?
+Αρχική σελίδα - 2ο Slider</t>
+  </si>
+  <si>
+    <t>τι εννοει με το 5ο heading?
+Μάλλον εννοεί τον editor</t>
+  </si>
+  <si>
+    <t>τι εννοει?
+Στα άρθρα μάλλον, όπως εμφανίζονται. Δεν ρώτησα.</t>
+  </si>
+  <si>
+    <t>Δεν θέλει τόνους - κεφαλαια κτλπ.</t>
+  </si>
+  <si>
+    <t>Δύσκολο</t>
+  </si>
+  <si>
+    <t>Θέλει να σπάσει σε 2 sliders</t>
+  </si>
+  <si>
+    <t>xmmm</t>
+  </si>
+  <si>
+    <t>Θανάση αυτό μου το έστειλαν από την sporting bet που θα γίνει χορηγός του τουρνουά. Έχουμε συμφωνήσει να βάλουμε δύο Μπάνερ δεξιά και αριστερά στα κενά του site και ένα μακρόστενο στο κέντρο τώρα πάνω από το slider η κάτω από αυτό δεν ξέρω θα το δούμε. Σε παρακαλώ στείλε μου σε τι μέγεθος θες να είναι για να του τα ζητήσω.  Από ότι είδα θέλει μέγεθος σε pixel καταλαβαίνεις τι θέλει ε;</t>
+  </si>
+  <si>
+    <t>logos</t>
+  </si>
+  <si>
+    <t>Στατιστικά site / κάτι πιο κατανοητό</t>
+  </si>
+  <si>
+    <t>Tαχύτητα / Sliders</t>
+  </si>
+  <si>
+    <t>Σε κάθε πορτοκαλί επικεφαλίδα να τον πετάει στην αντίστοιχη λίστα, βλέπε αρχικό τοπ 10.</t>
+  </si>
+  <si>
+    <t>Slider τελευταίων αγώνων να φέρνει 7 - ιδανικά της εβομάδας</t>
+  </si>
+  <si>
+    <t>GetWeeklyGames να φέρνει 7 παιχνίδια</t>
+  </si>
+  <si>
+    <t>Βαθμολογία - Νίκες + Ήττες + Μηδενισμοί + Πόντοι + Διαφορά Πόντων</t>
+  </si>
+  <si>
+    <t>Στα datatables να είναι σε μια σελίδα, π.χ. 3η από 10 να τον γυρνάει στην ίδια σελίδα…</t>
+  </si>
+  <si>
+    <t>Οι δηλώσεις --- είναι max 7! Να φαίνονται.</t>
+  </si>
+  <si>
+    <t>MVP - Δεν έχει βίντεο! Να μην είναι υποχρεωτικό!</t>
+  </si>
+  <si>
+    <t>MVP - να ομορφύνει designata</t>
+  </si>
+  <si>
+    <t>"Δείτε λίστα με όλα τα νέα" να γίνει pagging παρόμοιο με τα datatables</t>
   </si>
   <si>
     <t>Τέλος,θέλουμε να μπει ένα counter στο τέλος τέλος της αρχικής που θα έχει 3 πλαίσια.
 Πλαίσιο 1 : Συνολικοί χρήστες που έχουν επισκεφτεί το site = X
 Πλαίσιο 2 : Συνολικοί χρήστες που έχουν επισκεφτεί το site τον τελευταίο μήνα = Y
-Πλαίσιο 3 : Πόσοι χρήστες βρίκονται αυτή τη στιγμή στην σελίδα (εγγεγραμένοι και όχι).</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Finished</t>
-  </si>
-  <si>
-    <t>δεν θέλουμε το twitter.Μπορείς να το διώξεις.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Θέλουμε να αλλάξει στην αρχική οθόνη το "Top 10 και δηλώσεις" και να μείνει μόνο το "Top 10" </t>
-  </si>
-  <si>
-    <t>nikos</t>
-  </si>
-  <si>
-    <t>Ένα πολύ σημαντικό θέμα που μας έχει προκύψει είναι ότι η γραμματοσειρά είναι πολύ μικρή στα άρθρα(αυτή που είναι by default).Θέλουμε να κάνεις by default το 5ο heading.</t>
-  </si>
-  <si>
-    <t>Επίσης έχουμε παρατηρήσει ότι υπάρχει θέμα όταν γράφουμε σε άλλο heading μας τα βγάζει όλα σε κεφαλαία και δεν το θέλουμε.</t>
-  </si>
-  <si>
-    <t>thanasis</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Importance</t>
-  </si>
-  <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>που είναι αυτό?!?!?
-Αρχική σελίδα - 2ο Slider</t>
-  </si>
-  <si>
-    <t>τι εννοει με το 5ο heading?
-Μάλλον εννοεί τον editor</t>
-  </si>
-  <si>
-    <t>τι εννοει?
-Στα άρθρα μάλλον, όπως εμφανίζονται. Δεν ρώτησα.</t>
-  </si>
-  <si>
-    <t>Δεν θέλει τόνους - κεφαλαια κτλπ.</t>
-  </si>
-  <si>
-    <t>Δύσκολο</t>
-  </si>
-  <si>
-    <t>Θέλει να σπάσει σε 2 sliders</t>
-  </si>
-  <si>
-    <t>xmmm</t>
-  </si>
-  <si>
-    <t>Θανάση αυτό μου το έστειλαν από την sporting bet που θα γίνει χορηγός του τουρνουά. Έχουμε συμφωνήσει να βάλουμε δύο Μπάνερ δεξιά και αριστερά στα κενά του site και ένα μακρόστενο στο κέντρο τώρα πάνω από το slider η κάτω από αυτό δεν ξέρω θα το δούμε. Σε παρακαλώ στείλε μου σε τι μέγεθος θες να είναι για να του τα ζητήσω.  Από ότι είδα θέλει μέγεθος σε pixel καταλαβαίνεις τι θέλει ε;</t>
-  </si>
-  <si>
-    <t>logos</t>
+Πλαίσιο 3 : Πόσοι χρήστες βρίκονται αυτή τη στιγμή στην σελίδα (εγγεγραμένοι και όχι).
+Βλέπε Whiteart.gr, έχει ένα κίτρινο counter με μεγάλα κουτιά</t>
+  </si>
+  <si>
+    <t>Eurohoops facebook - Δεν έχει εικόνες.</t>
+  </si>
+  <si>
+    <t>Widget - πλαίσιο - άρθρα -&gt; ένα πλαίσιο να μην είναι αχνό.</t>
+  </si>
+  <si>
+    <t>Στα άρθρα - βλέπε αρχική - αν δεν έχει στην περίληψη κάτι να τραβήξει από το κείμενο να μην φαίνεται άδειο.</t>
+  </si>
+  <si>
+    <t>Στις λιστες όταν πατάει την εικόνα δεν τον πάει στο άρθρο.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Όταν βάζουμε βίντεο δηλώσεων σε ένα άρθρο,δεν τραβάει μια εικόνα από το βίντεο ώστε να μπει φωτογραφία του άρθρου.Κόιταξε το αυτό γιατί το θέλουμε.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Μόνο αν είναι ΔΗΛΩΣΗ ή TOP 10!</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,48 +307,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="4" sqref="A2:A3 A6 A7 A10 A11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -580,13 +652,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -598,13 +670,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -616,19 +688,19 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5">
         <v>43007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -640,10 +712,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12">
@@ -662,17 +734,17 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -684,15 +756,17 @@
         <v>6</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -707,16 +781,16 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5">
         <v>43007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -731,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="5">
@@ -753,14 +827,14 @@
         <v>8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -772,17 +846,17 @@
         <v>7</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -794,17 +868,19 @@
         <v>7</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -816,17 +892,17 @@
         <v>7</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="5">
         <v>43007</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -838,13 +914,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -857,70 +933,190 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="13"/>
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="13"/>
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="15">
+        <v>43011</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
@@ -954,7 +1150,11 @@
       <c r="E42" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H13"/>
+  <autoFilter ref="A1:H28">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>What</t>
   </si>
@@ -190,6 +190,9 @@
       </rPr>
       <t>Μόνο αν είναι ΔΗΛΩΣΗ ή TOP 10!</t>
     </r>
+  </si>
+  <si>
+    <t>Πρέπει να το δω.. Πως να φέρνει - ιδανικά - της εβδομάδας!</t>
   </si>
 </sst>
 </file>
@@ -307,41 +310,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,7 +327,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,26 +626,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -669,7 +664,7 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -677,477 +672,527 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>43007</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11">
         <v>43007</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>43009</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <v>43007</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="5">
+      <c r="G7" s="3"/>
+      <c r="H7" s="7">
         <v>43007</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>43009</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5">
+      <c r="G11" s="3"/>
+      <c r="H11" s="7">
         <v>43007</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
-        <v>43007</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="7">
+        <v>43007</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>14</v>
       </c>
-      <c r="B14" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="B14" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>16</v>
       </c>
-      <c r="B16" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>18</v>
       </c>
-      <c r="B18" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>19</v>
       </c>
-      <c r="B19" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="B19" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>20</v>
       </c>
-      <c r="B20" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="B20" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>21</v>
       </c>
-      <c r="B21" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="B21" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="B22" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>23</v>
       </c>
-      <c r="B23" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="B23" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>24</v>
       </c>
-      <c r="B24" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="B24" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>25</v>
       </c>
-      <c r="B25" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="B25" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>26</v>
       </c>
-      <c r="B26" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="B26" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>27</v>
       </c>
-      <c r="B27" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="B27" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>28</v>
       </c>
-      <c r="B28" s="15">
-        <v>43011</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="B28" s="7">
+        <v>43011</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="13"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H28">

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>What</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Πρέπει να το δω.. Πως να φέρνει - ιδανικά - της εβδομάδας!</t>
+  </si>
+  <si>
+    <t>Working on it.</t>
   </si>
 </sst>
 </file>
@@ -315,17 +318,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -336,6 +330,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -344,6 +344,9 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,27 +628,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -671,535 +673,535 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="H2" s="4">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
         <v>43007</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>43009</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="H6" s="4">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7">
+      <c r="G7" s="7"/>
+      <c r="H7" s="4">
         <v>43007</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>43009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="7">
+      <c r="G11" s="7"/>
+      <c r="H11" s="4">
         <v>43007</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
-        <v>43007</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
         <v>43015</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="B14" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="B15" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
         <v>43015</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <v>43015</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
         <v>43015</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>22</v>
-      </c>
-      <c r="B22" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>23</v>
       </c>
-      <c r="B23" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="B23" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>24</v>
       </c>
-      <c r="B24" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="B24" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>25</v>
       </c>
-      <c r="B25" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
+      <c r="B25" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <v>43015</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>26</v>
       </c>
-      <c r="B26" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
+      <c r="B26" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>27</v>
       </c>
-      <c r="B27" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
+      <c r="B27" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>28</v>
       </c>
-      <c r="B28" s="7">
-        <v>43011</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
+      <c r="B28" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
         <v>43015</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H28">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>What</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Working on it.</t>
+  </si>
+  <si>
+    <t>Λίστα με ενεργούς παίχτες</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -347,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -647,7 +653,7 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -851,7 +857,9 @@
       <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -989,7 +997,9 @@
       <c r="G16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1043,7 +1053,9 @@
       <c r="G19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1198,7 +1210,18 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="12">
+        <v>43017</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="12">
+        <v>43017</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H28"/>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -348,11 +348,11 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -648,7 +649,7 @@
     <col min="4" max="4" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="102.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -679,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -703,7 +704,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -747,7 +748,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -769,7 +770,7 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -793,7 +794,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -837,7 +838,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -861,7 +862,7 @@
         <v>43017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -885,7 +886,7 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -929,7 +930,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -981,7 +982,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>43015</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -1073,7 +1074,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>43015</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -1141,7 +1142,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -1191,7 +1192,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -1209,22 +1210,26 @@
         <v>43015</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>29</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>43017</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>43017</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H28"/>
+  <autoFilter ref="A1:H29">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>What</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Θέλει να σπάσει σε 2 sliders</t>
-  </si>
-  <si>
-    <t>xmmm</t>
   </si>
   <si>
     <t>Θανάση αυτό μου το έστειλαν από την sporting bet που θα γίνει χορηγός του τουρνουά. Έχουμε συμφωνήσει να βάλουμε δύο Μπάνερ δεξιά και αριστερά στα κενά του site και ένα μακρόστενο στο κέντρο τώρα πάνω από το slider η κάτω από αυτό δεν ξέρω θα το δούμε. Σε παρακαλώ στείλε μου σε τι μέγεθος θες να είναι για να του τα ζητήσω.  Από ότι είδα θέλει μέγεθος σε pixel καταλαβαίνεις τι θέλει ε;</t>
@@ -199,6 +196,56 @@
   </si>
   <si>
     <t>Λίστα με ενεργούς παίχτες</t>
+  </si>
+  <si>
+    <t>Δύσκολο
+Έχω κάνει δοκιμές και του δουλεύω.</t>
+  </si>
+  <si>
+    <t>xmmm
+Το κοιτάζω να το τσιμπησω μέσω google…</t>
+  </si>
+  <si>
+    <t>Sporting bet πλαισιο και στα στατιστικά</t>
+  </si>
+  <si>
+    <t>Όπου έχει logo Ατλα να λέει "powered by sporting bet"</t>
+  </si>
+  <si>
+    <t>Δηλώσεις, να φαίνονται καλά οι τίτλοι</t>
+  </si>
+  <si>
+    <t>Δηλώσεις, να φύγει το youtube - να φαίνεται το εικονίδιο. Γενικά το θέλουν.</t>
+  </si>
+  <si>
+    <t>Πρόγραμμα - κουμπιά - σειρά αρίθμησης - βάσει αγωνιστικής.</t>
+  </si>
+  <si>
+    <t>Στατιστικά φωτογραφία details</t>
+  </si>
+  <si>
+    <t>Γραμματοσειρά από 15px σε 16px</t>
+  </si>
+  <si>
+    <t>Δημιουργία άρθρου να έχει και το check box active</t>
+  </si>
+  <si>
+    <t>Ημερομηνία δημοσίευσης!</t>
+  </si>
+  <si>
+    <t>Θέλω το Logo… εκτός από το Statistics</t>
+  </si>
+  <si>
+    <t>Άφησα το εικονίδιο, αφαίρεσα το link για το youtube. Έβαλα να πηγαίνει στο άρθρο</t>
+  </si>
+  <si>
+    <t>τεστ ιτ!</t>
+  </si>
+  <si>
+    <t>Έβαλα ένα …</t>
+  </si>
+  <si>
+    <t>Εξήγησα ότι δεν είναι δυνατόν να γίνει!</t>
   </si>
 </sst>
 </file>
@@ -316,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -347,9 +394,6 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -635,10 +679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -646,10 +690,10 @@
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="102.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -726,7 +770,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -746,7 +790,9 @@
       <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>43019</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -816,7 +862,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -834,9 +880,11 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="4">
+        <v>43019</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -850,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>21</v>
@@ -920,13 +968,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -939,10 +987,10 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -960,7 +1008,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -976,7 +1024,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -992,11 +1040,11 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="4">
         <v>43017</v>
@@ -1012,11 +1060,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -1030,7 +1078,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1048,11 +1096,11 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="4">
         <v>43017</v>
@@ -1068,7 +1116,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1084,7 +1132,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1102,7 +1150,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1120,7 +1168,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1136,11 +1184,13 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>43025</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1152,7 +1202,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1170,13 +1220,13 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -1186,11 +1236,15 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="4">
+        <v>43020</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1202,7 +1256,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1210,22 +1264,188 @@
         <v>43015</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>29</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="4">
         <v>43017</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
         <v>43017</v>
       </c>
     </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="4">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="4">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="4">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H29">
+  <autoFilter ref="A1:H38">
     <filterColumn colId="7">
       <filters blank="1"/>
     </filterColumn>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>What</t>
   </si>
@@ -246,6 +247,12 @@
   </si>
   <si>
     <t>Εξήγησα ότι δεν είναι δυνατόν να γίνει!</t>
+  </si>
+  <si>
+    <t>Στην επικοινωνία δεν φαίνεται το email του αποστολέα</t>
+  </si>
+  <si>
+    <t>Δείτε λίστα με όλα τα νέα να γίνει pagging παρόμοιο με τα datatables</t>
   </si>
 </sst>
 </file>
@@ -679,10 +686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1181,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -1226,7 +1233,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -1332,7 +1339,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -1352,7 +1359,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -1370,7 +1377,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -1408,7 +1415,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -1444,8 +1451,26 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
+    <row r="39" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4">
+        <v>43025</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <v>43027</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H38">
+  <autoFilter ref="A1:H39">
     <filterColumn colId="7">
       <filters blank="1"/>
     </filterColumn>
@@ -1453,4 +1478,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>What</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>logos</t>
-  </si>
-  <si>
-    <t>Στατιστικά site / κάτι πιο κατανοητό</t>
   </si>
   <si>
     <t>Tαχύτητα / Sliders</t>
@@ -254,17 +251,31 @@
   <si>
     <t>Δείτε λίστα με όλα τα νέα να γίνει pagging παρόμοιο με τα datatables</t>
   </si>
+  <si>
+    <t xml:space="preserve">Μπορείς να ρυθμίσεις να μην εμφανίζονται και τα άρθρα με τις τιμωρίες στην αρχική σελίδα; </t>
+  </si>
+  <si>
+    <t>Στατιστικά site / κάτι πιο κατανοητό από το google statistics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,40 +381,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -887,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4">
         <v>43019</v>
@@ -905,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>21</v>
@@ -975,13 +989,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -1014,8 +1028,8 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
+      <c r="E14" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1031,7 +1045,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1047,11 +1061,11 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4">
         <v>43017</v>
@@ -1067,11 +1081,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -1085,7 +1099,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1103,11 +1117,11 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="4">
         <v>43017</v>
@@ -1123,7 +1137,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1139,7 +1153,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1157,7 +1171,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1175,7 +1189,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1191,7 +1205,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1209,7 +1223,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1227,11 +1241,13 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>43029</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1243,11 +1259,11 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="4">
         <v>43020</v>
@@ -1263,7 +1279,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1281,7 +1297,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1299,7 +1315,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1315,11 +1331,11 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -1333,11 +1349,13 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4">
+        <v>43029</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -1349,11 +1367,11 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="4">
         <v>43025</v>
@@ -1369,7 +1387,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1387,11 +1405,11 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="4">
         <v>43025</v>
@@ -1407,7 +1425,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1425,11 +1443,11 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" s="4">
         <v>43025</v>
@@ -1445,7 +1463,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1461,7 +1479,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1469,8 +1487,26 @@
         <v>43027</v>
       </c>
     </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>43027</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <v>43029</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H39">
+  <autoFilter ref="A1:H40">
     <filterColumn colId="7">
       <filters blank="1"/>
     </filterColumn>
@@ -1496,46 +1532,46 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$H$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$I$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>What</t>
   </si>
@@ -257,17 +257,43 @@
   <si>
     <t>Στατιστικά site / κάτι πιο κατανοητό από το google statistics</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Μικρή διόρθωση</t>
+  </si>
+  <si>
+    <t>Διόρθωση</t>
+  </si>
+  <si>
+    <t>Αλλαγή/Προσθήκη</t>
+  </si>
+  <si>
+    <t>Διόρθωση/Αλλαγή</t>
+  </si>
+  <si>
+    <t>Διορθώσεις/Αλλαγές</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,40 +407,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -700,10 +729,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -711,15 +740,16 @@
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="102.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="20.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -744,8 +774,11 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -768,8 +801,11 @@
       <c r="H2" s="4">
         <v>43007</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -790,8 +826,11 @@
       <c r="H3" s="10">
         <v>43007</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -814,8 +853,11 @@
       <c r="H4" s="4">
         <v>43019</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -836,8 +878,11 @@
       <c r="H5" s="4">
         <v>43009</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -860,8 +905,11 @@
       <c r="H6" s="4">
         <v>43007</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -882,8 +930,11 @@
       <c r="H7" s="4">
         <v>43007</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -906,8 +957,11 @@
       <c r="H8" s="4">
         <v>43019</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -930,8 +984,11 @@
       <c r="H9" s="4">
         <v>43017</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -954,8 +1011,11 @@
       <c r="H10" s="4">
         <v>43009</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -976,8 +1036,11 @@
       <c r="H11" s="4">
         <v>43007</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="I11" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -998,8 +1061,11 @@
         <v>50</v>
       </c>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1018,8 +1084,11 @@
       <c r="H13" s="4">
         <v>43015</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I13" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -1034,8 +1103,11 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1050,8 +1122,11 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -1070,8 +1145,11 @@
       <c r="H16" s="4">
         <v>43017</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1088,8 +1166,11 @@
         <v>46</v>
       </c>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1106,8 +1187,11 @@
       <c r="H18" s="4">
         <v>43015</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -1126,8 +1210,11 @@
       <c r="H19" s="4">
         <v>43017</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -1142,8 +1229,11 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -1160,8 +1250,11 @@
       <c r="H21" s="4">
         <v>43015</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -1178,8 +1271,11 @@
       <c r="H22" s="4">
         <v>43015</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -1193,9 +1289,14 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <v>43031</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -1212,8 +1313,11 @@
       <c r="H24" s="4">
         <v>43025</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -1230,8 +1334,11 @@
       <c r="H25" s="4">
         <v>43015</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I25" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -1248,8 +1355,11 @@
       <c r="H26" s="4">
         <v>43029</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -1268,8 +1378,11 @@
       <c r="H27" s="4">
         <v>43020</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -1286,8 +1399,11 @@
       <c r="H28" s="4">
         <v>43015</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -1304,8 +1420,11 @@
       <c r="H29" s="4">
         <v>43017</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -1320,8 +1439,11 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I30" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -1338,8 +1460,11 @@
         <v>60</v>
       </c>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I31" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -1356,8 +1481,11 @@
       <c r="H32" s="4">
         <v>43029</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -1376,8 +1504,11 @@
       <c r="H33" s="4">
         <v>43025</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -1394,8 +1525,11 @@
       <c r="H34" s="4">
         <v>43025</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -1414,8 +1548,11 @@
       <c r="H35" s="4">
         <v>43025</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -1432,8 +1569,11 @@
       <c r="H36" s="4">
         <v>43025</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -1452,8 +1592,11 @@
       <c r="H37" s="4">
         <v>43025</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I37" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -1468,8 +1611,11 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -1486,8 +1632,11 @@
       <c r="H39" s="4">
         <v>43027</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1504,11 +1653,16 @@
       <c r="H40" s="4">
         <v>43029</v>
       </c>
+      <c r="I40" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H40">
-    <filterColumn colId="7">
-      <filters blank="1"/>
+  <autoFilter ref="A1:I40">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Αλλαγή/Προσθήκη"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$I$40</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -447,6 +447,9 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +732,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -749,7 +752,7 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -778,7 +781,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -805,7 +808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -830,7 +833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -856,8 +859,12 @@
       <c r="I4" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="14"/>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -882,7 +889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -909,7 +916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -934,7 +941,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -960,8 +967,11 @@
       <c r="I8" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -987,8 +997,11 @@
       <c r="I9" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -1014,8 +1027,11 @@
       <c r="I10" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -1040,7 +1056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1087,8 +1103,11 @@
       <c r="I13" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -1107,7 +1126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1126,7 +1145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -1148,8 +1167,11 @@
       <c r="I16" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1191,7 +1213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -1213,8 +1235,11 @@
       <c r="I19" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -1233,7 +1258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -1254,7 +1279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -1275,7 +1300,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -1296,7 +1321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -1316,8 +1341,11 @@
       <c r="I24" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -1338,7 +1366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -1359,7 +1387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -1382,7 +1410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -1403,7 +1431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -1424,7 +1452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -1442,8 +1470,11 @@
       <c r="I30" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -1464,7 +1495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -1485,7 +1516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -1508,7 +1539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -1529,7 +1560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -1552,7 +1583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -1573,7 +1604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -1596,7 +1627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -1614,8 +1645,11 @@
       <c r="I38" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -1636,7 +1670,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1655,6 +1689,12 @@
       </c>
       <c r="I40" s="4" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="2">
+        <f>SUM(K4:K38)*5</f>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/ToDo/ToDo.xlsx
+++ b/ToDo/ToDo.xlsx
@@ -734,8 +734,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -941,7 +941,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -971,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -1466,7 +1466,9 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4">
+        <v>43032</v>
+      </c>
       <c r="I30" s="4" t="s">
         <v>72</v>
       </c>
@@ -1699,10 +1701,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I40">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Αλλαγή/Προσθήκη"/>
-      </filters>
+    <filterColumn colId="7">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
